--- a/Recycling/Met_rec_tech/metrec_tech_Avg_hist_Max.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Avg_hist_Max.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.556290867029222E-12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.432705408359321E-06</v>
+      </c>
+      <c r="E7">
         <v>5.912782652320232</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.886608877061845E-08</v>
-      </c>
-      <c r="F7">
-        <v>3.432705408359321E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.315138601218358</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.64887861915583</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>455622.1531794474</v>
+      </c>
+      <c r="E7">
         <v>1093215.769419258</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>80136.15981180687</v>
-      </c>
-      <c r="F7">
-        <v>455622.1531794474</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>58266.04978781777</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.30355977960697</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>438378.7258850934</v>
+      </c>
+      <c r="E7">
         <v>1123653.28956553</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77948.41443569053</v>
-      </c>
-      <c r="F7">
-        <v>438378.7258850934</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>59888.30416236134</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.212639062555979E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>4.577035148511464E-05</v>
+      </c>
+      <c r="E7">
         <v>12.06356391225342</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4.56952125152452E-07</v>
-      </c>
-      <c r="F7">
-        <v>4.577035148511464E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.6429620164583565</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.403176765927352E-10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0005103593852487571</v>
+      </c>
+      <c r="E7">
         <v>25.57046757822608</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.957322374110297E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.0005103593852487571</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.362850938202407</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.453528474503011E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.003992681087575814</v>
+      </c>
+      <c r="E7">
         <v>45.53628014385437</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.355678785473587E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.003992681087575814</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.426985815822333</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.947211267181084E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.02903694291723027</v>
+      </c>
+      <c r="E7">
         <v>87.87729939673724</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0004401361172919245</v>
-      </c>
-      <c r="F7">
-        <v>0.02903694291723027</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4.683671096867974</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.652815021617394E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.1747426970921714</v>
+      </c>
+      <c r="E7">
         <v>159.8844001110029</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.002947761136567784</v>
-      </c>
-      <c r="F7">
-        <v>0.1747426970921714</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8.521494729363326</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.246430175824311E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.7683649938213311</v>
+      </c>
+      <c r="E7">
         <v>236.6741191059601</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.01423211440287635</v>
-      </c>
-      <c r="F7">
-        <v>0.7683649938213311</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>12.61422163224136</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.141471403645049E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.597587427644169</v>
+      </c>
+      <c r="E7">
         <v>406.4693743690771</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.07231718919697561</v>
-      </c>
-      <c r="F7">
-        <v>3.597587427644169</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>21.66394363007859</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.313830784506859E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>15.58794493008847</v>
+      </c>
+      <c r="E7">
         <v>691.3447445493634</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3366543436627271</v>
-      </c>
-      <c r="F7">
-        <v>15.58794493008847</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>36.84718829829732</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0002299815270560615</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>63.32496428624729</v>
+      </c>
+      <c r="E7">
         <v>1164.400711475301</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.457033224907167</v>
-      </c>
-      <c r="F7">
-        <v>63.32496428624729</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62.06005413170286</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0008280155066547987</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>215.4126524471193</v>
+      </c>
+      <c r="E7">
         <v>1719.717249664858</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.24583917403198</v>
-      </c>
-      <c r="F7">
-        <v>215.4126524471193</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>91.65723153003078</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.002966664171366502</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>731.7732310078703</v>
+      </c>
+      <c r="E7">
         <v>2647.512901074896</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18.79511072108414</v>
-      </c>
-      <c r="F7">
-        <v>731.7732310078703</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>141.1067447278651</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0100026627356116</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2332.36845693244</v>
+      </c>
+      <c r="E7">
         <v>4013.79899858614</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>63.37122868035495</v>
-      </c>
-      <c r="F7">
-        <v>2332.36845693244</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>213.9268558247651</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.02669224710536994</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5777.504704056603</v>
+      </c>
+      <c r="E7">
         <v>5087.464799375357</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>169.107020802048</v>
-      </c>
-      <c r="F7">
-        <v>5777.504704056603</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>271.150934322548</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.07335580573140553</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>14004.15433359834</v>
+      </c>
+      <c r="E7">
         <v>7245.07283739211</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>464.7410057610384</v>
-      </c>
-      <c r="F7">
-        <v>14004.15433359834</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>386.1468032830396</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1624042177379068</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>24747.3402445104</v>
+      </c>
+      <c r="E7">
         <v>9804.082203404561</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1028.901512822403</v>
-      </c>
-      <c r="F7">
-        <v>24747.3402445104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>522.5364998996379</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2566526381240039</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>29493.41257224982</v>
+      </c>
+      <c r="E7">
         <v>12962.78063562252</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1626.006339698723</v>
-      </c>
-      <c r="F7">
-        <v>29493.41257224982</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>690.888334244364</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2395998668528188</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>27997.87945117306</v>
+      </c>
+      <c r="E7">
         <v>16765.36394128213</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1517.969600240069</v>
-      </c>
-      <c r="F7">
-        <v>27997.87945117306</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>893.5578478094552</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1342382990882756</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>27928.49039453642</v>
+      </c>
+      <c r="E7">
         <v>21231.37706777129</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>850.4581404008377</v>
-      </c>
-      <c r="F7">
-        <v>27928.49039453642</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1131.586744263537</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1082847005865756</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>29595.04615008063</v>
+      </c>
+      <c r="E7">
         <v>26349.49511425727</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>686.0307804865791</v>
-      </c>
-      <c r="F7">
-        <v>29595.04615008063</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1404.371430743954</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>3.715264462712081E-05</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.980156069961268E-06</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1793320250170452</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>31459.24808094228</v>
+      </c>
+      <c r="E7">
         <v>32076.86842569004</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1136.146550918519</v>
-      </c>
-      <c r="F7">
-        <v>31459.24808094228</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1709.628112775385</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.261305837848127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>32866.1914899386</v>
+      </c>
+      <c r="E7">
         <v>38346.02339704393</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1655.48638832247</v>
-      </c>
-      <c r="F7">
-        <v>32866.1914899386</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2043.760592297242</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.3675500788663968</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>34313.82921762476</v>
+      </c>
+      <c r="E7">
         <v>45080.51730663679</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2328.589967989236</v>
-      </c>
-      <c r="F7">
-        <v>34313.82921762476</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2402.694636617278</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.5042730269645479</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37006.66851770053</v>
+      </c>
+      <c r="E7">
         <v>52222.08083102421</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3194.789442948386</v>
-      </c>
-      <c r="F7">
-        <v>37006.66851770053</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2783.324616091383</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.5944827242861244</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37216.46305929048</v>
+      </c>
+      <c r="E7">
         <v>59771.86965706987</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3766.30719869542</v>
-      </c>
-      <c r="F7">
-        <v>37216.46305929048</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3185.712126344341</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.7114348369345057</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36703.60182151938</v>
+      </c>
+      <c r="E7">
         <v>67846.67131737282</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4507.249812796072</v>
-      </c>
-      <c r="F7">
-        <v>36703.60182151938</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3616.081691737548</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.123804829918787</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37442.5845328724</v>
+      </c>
+      <c r="E7">
         <v>76747.65252466155</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7119.793474124003</v>
-      </c>
-      <c r="F7">
-        <v>37442.5845328724</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4090.484850466059</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.813341722738724</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37618.72876622101</v>
+      </c>
+      <c r="E7">
         <v>87034.03745893032</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>11488.31026544436</v>
-      </c>
-      <c r="F7">
-        <v>37618.72876622101</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4638.727048833862</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.597867911476427</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>39126.18151752081</v>
+      </c>
+      <c r="E7">
         <v>99587.75358907231</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16458.62565308843</v>
-      </c>
-      <c r="F7">
-        <v>39126.18151752081</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5307.81312454017</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.354482086762398</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40627.73983987276</v>
+      </c>
+      <c r="E7">
         <v>115648.5281499229</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21252.10626841919</v>
-      </c>
-      <c r="F7">
-        <v>40627.73983987276</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6163.817873438511</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.001867739701078062</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>9.954650990033663E-05</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.230197536200036</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>39841.68579538364</v>
+      </c>
+      <c r="E7">
         <v>136794.8619548516</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20464.70946385812</v>
-      </c>
-      <c r="F7">
-        <v>39841.68579538364</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7290.87199465954</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.87082430364739</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36856.67967757388</v>
+      </c>
+      <c r="E7">
         <v>164854.997171888</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18187.92338162702</v>
-      </c>
-      <c r="F7">
-        <v>36856.67967757388</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8786.416864522938</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.785454460710907</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>33680.44436692954</v>
+      </c>
+      <c r="E7">
         <v>201745.3140668563</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17647.06821314542</v>
-      </c>
-      <c r="F7">
-        <v>33680.44436692954</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>10752.59143043909</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.527655941017836</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>35415.2045516292</v>
+      </c>
+      <c r="E7">
         <v>249247.9614781581</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16013.80221420662</v>
-      </c>
-      <c r="F7">
-        <v>35415.2045516292</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>13284.38039337216</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.209789145236293</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>43893.69472510834</v>
+      </c>
+      <c r="E7">
         <v>308753.3043766686</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>13999.97750194792</v>
-      </c>
-      <c r="F7">
-        <v>43893.69472510834</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>16455.88721659299</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.966321255261272</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>64331.0467720977</v>
+      </c>
+      <c r="E7">
         <v>380999.544288556</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12457.50228912279</v>
-      </c>
-      <c r="F7">
-        <v>64331.0467720977</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>20306.45645410485</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.549163421615684</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>102147.6754410467</v>
+      </c>
+      <c r="E7">
         <v>465840.5889718067</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16150.06147909736</v>
-      </c>
-      <c r="F7">
-        <v>102147.6754410467</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>24828.30170354796</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.959774933217564</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>153490.9912755615</v>
+      </c>
+      <c r="E7">
         <v>562065.7686149797</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25086.90030328453</v>
-      </c>
-      <c r="F7">
-        <v>153490.9912755615</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>29956.89686725404</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.518511781423071</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>210023.9193598978</v>
+      </c>
+      <c r="E7">
         <v>667288.7332127813</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34962.17770401629</v>
-      </c>
-      <c r="F7">
-        <v>210023.9193598978</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>35565.05462126648</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.771376653249072</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>290364.8061476949</v>
+      </c>
+      <c r="E7">
         <v>777924.4889928669</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>49235.05871100495</v>
-      </c>
-      <c r="F7">
-        <v>290364.8061476949</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>41461.70250626704</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.01806912527406489</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0009630455233922051</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.6883836642822</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>392862.0718958749</v>
+      </c>
+      <c r="E7">
         <v>889281.314764363</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>67715.56967537632</v>
-      </c>
-      <c r="F7">
-        <v>392862.0718958749</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>47396.78187130593</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.1443049658189</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>444995.9006264503</v>
+      </c>
+      <c r="E7">
         <v>995798.4357445289</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76939.46576974377</v>
-      </c>
-      <c r="F7">
-        <v>444995.9006264503</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>53073.91537769718</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.21236225089909</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>448396.0570333642</v>
+      </c>
+      <c r="E7">
         <v>1091449.012242458</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77370.63833750674</v>
-      </c>
-      <c r="F7">
-        <v>448396.0570333642</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>58171.88542932059</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.11618903964124</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>444514.6984949346</v>
+      </c>
+      <c r="E7">
         <v>1170296.168816971</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76761.33912142427</v>
-      </c>
-      <c r="F7">
-        <v>444514.6984949346</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62374.26933111792</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.86764193144728</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>434153.0124852268</v>
+      </c>
+      <c r="E7">
         <v>1227144.172562207</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75186.68484710547</v>
-      </c>
-      <c r="F7">
-        <v>434153.0124852268</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>65404.14569149783</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.49387727476643</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>418641.6646743995</v>
+      </c>
+      <c r="E7">
         <v>1258184.028480578</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>72818.72281967156</v>
-      </c>
-      <c r="F7">
-        <v>418641.6646743995</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>67058.50326750247</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.25808146309378</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>406821.7521046458</v>
+      </c>
+      <c r="E7">
         <v>1261511.92623549</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>71324.85356721957</v>
-      </c>
-      <c r="F7">
-        <v>406821.7521046458</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>67235.87306192055</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.98395265146122</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>391389.0797815956</v>
+      </c>
+      <c r="E7">
         <v>1237413.495256099</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69588.12805032358</v>
-      </c>
-      <c r="F7">
-        <v>391389.0797815956</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>65951.47850914217</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.11288485801829</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>350960.3151397895</v>
+      </c>
+      <c r="E7">
         <v>1188357.418630404</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>64069.53387261146</v>
-      </c>
-      <c r="F7">
-        <v>350960.3151397895</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>63336.89510939291</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.09909758384744</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>264993.932792032</v>
+      </c>
+      <c r="E7">
         <v>1118713.546240639</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>51311.31366283385</v>
-      </c>
-      <c r="F7">
-        <v>264993.932792032</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>59625.02646498602</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.08585021074221118</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.004575631630394052</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.353946348985898</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>149400.357507385</v>
+      </c>
+      <c r="E7">
         <v>1034275.003553303</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33919.5839539812</v>
-      </c>
-      <c r="F7">
-        <v>149400.357507385</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>55124.63370643232</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.1874958879812</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>89872.68532557919</v>
+      </c>
+      <c r="E7">
         <v>941693.6106907824</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>26529.61181731549</v>
-      </c>
-      <c r="F7">
-        <v>89872.68532557919</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>50190.24454296577</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.322527810683904</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>83261.86748805724</v>
+      </c>
+      <c r="E7">
         <v>847920.598339123</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27385.09790926136</v>
-      </c>
-      <c r="F7">
-        <v>83261.86748805724</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>45192.34462304608</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.146545552661293</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>76983.97382463234</v>
+      </c>
+      <c r="E7">
         <v>759693.614155809</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>26270.17359244602</v>
-      </c>
-      <c r="F7">
-        <v>76983.97382463234</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>40490.03607897449</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.604300591396807</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>64490.41474879032</v>
+      </c>
+      <c r="E7">
         <v>683063.4931031902</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22834.81539340134</v>
-      </c>
-      <c r="F7">
-        <v>64490.41474879032</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>36405.81540324249</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.955773353764156</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>50499.16999259004</v>
+      </c>
+      <c r="E7">
         <v>622947.1342165901</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18726.11264416837</v>
-      </c>
-      <c r="F7">
-        <v>50499.16999259004</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>33201.74274171319</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.560076651398988</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>50149.10070693048</v>
+      </c>
+      <c r="E7">
         <v>582732.7887844223</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16219.20154694918</v>
-      </c>
-      <c r="F7">
-        <v>50149.10070693048</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>31058.40460236317</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.495804817612807</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>66586.55678483346</v>
+      </c>
+      <c r="E7">
         <v>564016.8191761968</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15812.01146324585</v>
-      </c>
-      <c r="F7">
-        <v>66586.55678483346</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>30060.88366685795</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.799282553630357</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>95999.95853329118</v>
+      </c>
+      <c r="E7">
         <v>566565.1631357202</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17734.67520957966</v>
-      </c>
-      <c r="F7">
-        <v>95999.95853329118</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>30196.7049202423</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.674336165936403</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>139097.6457947918</v>
+      </c>
+      <c r="E7">
         <v>588541.213573703</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>23278.52128724376</v>
-      </c>
-      <c r="F7">
-        <v>139097.6457947918</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>31367.98115388034</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8366,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.034393424354977E-17</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8395,13 +8395,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>8.201801077975035E-11</v>
+      </c>
+      <c r="E7">
         <v>0.3028330077108888</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.823051278941755E-13</v>
-      </c>
-      <c r="F7">
-        <v>8.201801077975035E-11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.01614034813461449</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.115741567656433</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>194538.3226870802</v>
+      </c>
+      <c r="E7">
         <v>626946.540902252</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32410.45282866184</v>
-      </c>
-      <c r="F7">
-        <v>194538.3226870802</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>33414.90251820663</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.942837874715366</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>260291.6999985159</v>
+      </c>
+      <c r="E7">
         <v>678140.0759070057</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>43985.9043815212</v>
-      </c>
-      <c r="F7">
-        <v>260291.6999985159</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>36143.40785342141</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.978504546997595</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>332725.2278145407</v>
+      </c>
+      <c r="E7">
         <v>738287.3126588787</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>56882.74011575997</v>
-      </c>
-      <c r="F7">
-        <v>332725.2278145407</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>39349.12623877363</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.81162051917008</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>397685.6908926156</v>
+      </c>
+      <c r="E7">
         <v>803651.3586786048</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>68496.32887113962</v>
-      </c>
-      <c r="F7">
-        <v>397685.6908926156</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>42832.88934049119</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.86910710776383</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>435261.670035837</v>
+      </c>
+      <c r="E7">
         <v>870729.2885382572</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75195.96737775429</v>
-      </c>
-      <c r="F7">
-        <v>435261.670035837</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>46407.99876554319</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.11934475446473</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>444036.9039570261</v>
+      </c>
+      <c r="E7">
         <v>936300.5617258163</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76781.33195043541</v>
-      </c>
-      <c r="F7">
-        <v>444036.9039570261</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>49902.8066297094</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.99214198540941</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>438531.4366320658</v>
+      </c>
+      <c r="E7">
         <v>997459.1206583951</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75975.44695964393</v>
-      </c>
-      <c r="F7">
-        <v>438531.4366320658</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>53162.42631266531</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.74655507666951</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>427653.1460278082</v>
+      </c>
+      <c r="E7">
         <v>1051664.089546975</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74419.54683924405</v>
-      </c>
-      <c r="F7">
-        <v>427653.1460278082</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>56051.43459845585</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.46184189182452</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>414022.7393182046</v>
+      </c>
+      <c r="E7">
         <v>1096806.034537832</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>72615.76470422425</v>
-      </c>
-      <c r="F7">
-        <v>414022.7393182046</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>58457.40319855522</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.18569907712682</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>398700.332891275</v>
+      </c>
+      <c r="E7">
         <v>1131272.252387222</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>70866.27959998867</v>
-      </c>
-      <c r="F7">
-        <v>398700.332891275</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>60294.37849783868</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.985218246903239E-15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5.335236045480532E-09</v>
+      </c>
+      <c r="E7">
         <v>0.9670845683224134</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.158353069540608E-11</v>
-      </c>
-      <c r="F7">
-        <v>5.335236045480532E-09</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.05154352798701166</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.84271164708116</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>378082.5089833619</v>
+      </c>
+      <c r="E7">
         <v>1154001.874637057</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>68693.30471935739</v>
-      </c>
-      <c r="F7">
-        <v>378082.5089833619</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61505.81848865652</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.1316313174842</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>340943.4743055571</v>
+      </c>
+      <c r="E7">
         <v>1164531.674953056</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>64188.30086507758</v>
-      </c>
-      <c r="F7">
-        <v>340943.4743055571</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62067.03420345879</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.684045042838493</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>274989.0302111543</v>
+      </c>
+      <c r="E7">
         <v>1163034.552052745</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>55017.21079937744</v>
-      </c>
-      <c r="F7">
-        <v>274989.0302111543</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61987.24077210871</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.033870637229167</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>201314.3462249808</v>
+      </c>
+      <c r="E7">
         <v>1150345.558293608</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>44562.63661404247</v>
-      </c>
-      <c r="F7">
-        <v>201314.3462249808</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61310.944689662</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.026229059997729</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>153300.962243793</v>
+      </c>
+      <c r="E7">
         <v>1127961.664964553</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38178.78798229485</v>
-      </c>
-      <c r="F7">
-        <v>153300.962243793</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>60117.93130690705</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.607703121019776</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>132538.3458270061</v>
+      </c>
+      <c r="E7">
         <v>1097996.517259523</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35527.24371966502</v>
-      </c>
-      <c r="F7">
-        <v>132538.3458270061</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>58520.8533677477</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.278561665184784</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>122474.3919659962</v>
+      </c>
+      <c r="E7">
         <v>1063073.098231261</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33441.98912124244</v>
-      </c>
-      <c r="F7">
-        <v>122474.3919659962</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>56659.51022874188</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.837154371132725</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>114296.7941001324</v>
+      </c>
+      <c r="E7">
         <v>1026146.780627139</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30645.48150003058</v>
-      </c>
-      <c r="F7">
-        <v>114296.7941001324</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>54691.41690243954</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.41257676753308</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>110601.7743835426</v>
+      </c>
+      <c r="E7">
         <v>990268.0292779851</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27955.59730404752</v>
-      </c>
-      <c r="F7">
-        <v>110601.7743835426</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>52779.15660496405</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.195837772214667</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>117311.254040661</v>
+      </c>
+      <c r="E7">
         <v>958313.5630091019</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>26582.46129023652</v>
-      </c>
-      <c r="F7">
-        <v>117311.254040661</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>51076.05226394733</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.011238996507102E-13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.813380488625978E-07</v>
+      </c>
+      <c r="E7">
         <v>2.676897733400711</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.274207575996074E-09</v>
-      </c>
-      <c r="F7">
-        <v>1.813380488625978E-07</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.142672893105154</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.321695434776925</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>137584.8330475331</v>
+      </c>
+      <c r="E7">
         <v>932729.0246695273</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27379.82444505053</v>
-      </c>
-      <c r="F7">
-        <v>137584.8330475331</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>49712.45138442115</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.908870531753911</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>172302.4220283676</v>
+      </c>
+      <c r="E7">
         <v>915327.472580559</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31099.83463928239</v>
-      </c>
-      <c r="F7">
-        <v>172302.4220283676</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>48784.98607632397</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.991989851127834</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>219854.8780271048</v>
+      </c>
+      <c r="E7">
         <v>907174.1475558517</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37961.86766892633</v>
-      </c>
-      <c r="F7">
-        <v>219854.8780271048</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>48350.43138445539</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.474997415190392</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>276700.9525305228</v>
+      </c>
+      <c r="E7">
         <v>908564.9497281942</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>47357.36704353942</v>
-      </c>
-      <c r="F7">
-        <v>276700.9525305228</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>48424.5581496243</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.163212276048441</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>337938.1260367213</v>
+      </c>
+      <c r="E7">
         <v>919084.5526239537</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>58052.94409505013</v>
-      </c>
-      <c r="F7">
-        <v>337938.1260367213</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>48985.23036385516</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.79686233334287</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>396188.4532991238</v>
+      </c>
+      <c r="E7">
         <v>937718.5155064662</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>68402.82933069889</v>
-      </c>
-      <c r="F7">
-        <v>396188.4532991238</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>49978.38051721748</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.10357652045891</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>442487.2786248292</v>
+      </c>
+      <c r="E7">
         <v>962993.6366356391</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76681.43331449413</v>
-      </c>
-      <c r="F7">
-        <v>442487.2786248292</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>51325.49012476351</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.8603530758403</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>469001.5899700042</v>
+      </c>
+      <c r="E7">
         <v>993127.3561602902</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>81475.94267851234</v>
-      </c>
-      <c r="F7">
-        <v>469001.5899700042</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>52931.5525794317</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.06883183746626</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>475538.9927817824</v>
+      </c>
+      <c r="E7">
         <v>1026174.295065711</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82796.74651117179</v>
-      </c>
-      <c r="F7">
-        <v>475538.9927817824</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>54692.88336285163</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.93490250624888</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>468965.1071601229</v>
+      </c>
+      <c r="E7">
         <v>1060162.720202699</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>81948.24581691495</v>
-      </c>
-      <c r="F7">
-        <v>468965.1071601229</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>56504.39333795311</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
